--- a/로스트아크 역분석/바드스킬.xlsx
+++ b/로스트아크 역분석/바드스킬.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\taewoo\Documents\GitHub\smallprecious\로스트아크 역분석\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E1A6C26-22A8-405F-9D27-BFD18CD2F5DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D92CFB6-6AF7-4FB5-9473-5B401045CC34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{E33CD721-A33E-4878-8E53-9CED14700A71}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{E33CD721-A33E-4878-8E53-9CED14700A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1675,6 +1675,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1692,9 +1695,6 @@
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2012,7 +2012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCDCBCBD-9895-43FF-B5EE-D44F5026C793}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -2069,7 +2069,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -2078,7 +2078,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -2101,7 +2101,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -2123,7 +2123,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -2133,7 +2133,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -2142,7 +2142,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -2171,7 +2171,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>196</v>
       </c>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -2217,7 +2217,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -2236,7 +2236,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -2258,7 +2258,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -2274,7 +2274,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -2290,7 +2290,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -2306,7 +2306,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -2322,7 +2322,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -2338,7 +2338,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -2370,7 +2370,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -2386,7 +2386,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -2402,7 +2402,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -2418,7 +2418,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -2435,7 +2435,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -4114,7 +4114,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -4123,7 +4123,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -4146,7 +4146,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -4174,7 +4174,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -4212,7 +4212,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>197</v>
       </c>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -4256,7 +4256,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -4275,7 +4275,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -4297,7 +4297,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -4329,7 +4329,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -4345,7 +4345,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -4377,7 +4377,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -4393,7 +4393,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -4409,7 +4409,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -4457,7 +4457,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -4474,7 +4474,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -6142,7 +6142,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -6153,7 +6153,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -6162,7 +6162,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -6205,7 +6205,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -6213,7 +6213,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -6222,7 +6222,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -6251,7 +6251,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>198</v>
       </c>
@@ -6276,7 +6276,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -6295,7 +6295,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -6314,7 +6314,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -6336,7 +6336,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -6352,7 +6352,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -6368,7 +6368,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -6384,7 +6384,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -6400,7 +6400,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -6416,7 +6416,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -6432,7 +6432,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -6448,7 +6448,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -6464,7 +6464,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -6496,7 +6496,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -8181,7 +8181,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -8192,7 +8192,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -8201,7 +8201,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -8224,7 +8224,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -8244,7 +8244,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -8252,7 +8252,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -8261,7 +8261,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -8290,7 +8290,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>199</v>
       </c>
@@ -8315,7 +8315,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -8334,7 +8334,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -8353,7 +8353,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -8375,7 +8375,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -8391,7 +8391,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -8407,7 +8407,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -8423,7 +8423,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -8439,7 +8439,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -8455,7 +8455,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -8471,7 +8471,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -8487,7 +8487,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -8503,7 +8503,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -8519,7 +8519,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -8535,7 +8535,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -8552,7 +8552,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -10231,7 +10231,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -10240,7 +10240,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -10263,7 +10263,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -10283,7 +10283,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -10291,7 +10291,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -10300,7 +10300,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -10329,7 +10329,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>200</v>
       </c>
@@ -10354,7 +10354,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -10373,7 +10373,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -10392,7 +10392,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -10414,7 +10414,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -10430,7 +10430,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -10446,7 +10446,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -10462,7 +10462,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -10478,7 +10478,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -10494,7 +10494,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -10510,7 +10510,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -10526,7 +10526,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -10542,7 +10542,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -10558,7 +10558,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -10574,7 +10574,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -10591,7 +10591,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -12259,7 +12259,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -12270,7 +12270,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -12279,7 +12279,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -12322,7 +12322,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -12330,7 +12330,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -12339,7 +12339,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -12368,7 +12368,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>201</v>
       </c>
@@ -12393,7 +12393,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -12412,7 +12412,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -12431,7 +12431,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -12453,7 +12453,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -12469,7 +12469,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -12485,7 +12485,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -12501,7 +12501,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -12517,7 +12517,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -12533,7 +12533,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -12549,7 +12549,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -12565,7 +12565,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -12581,7 +12581,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -12597,7 +12597,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -12613,7 +12613,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -12630,7 +12630,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -14298,7 +14298,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -14309,7 +14309,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -14318,7 +14318,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -14341,7 +14341,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -14361,7 +14361,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -14369,7 +14369,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -14407,7 +14407,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>202</v>
       </c>
@@ -14432,7 +14432,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -14451,7 +14451,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -14470,7 +14470,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -14492,7 +14492,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -14508,7 +14508,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -14524,7 +14524,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -14540,7 +14540,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -14556,7 +14556,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -14572,7 +14572,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -14588,7 +14588,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -14604,7 +14604,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -14620,7 +14620,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -14636,7 +14636,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -14652,7 +14652,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -14669,7 +14669,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -16337,7 +16337,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -16348,7 +16348,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -16357,7 +16357,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -16380,7 +16380,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -16400,7 +16400,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -16408,7 +16408,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -16417,7 +16417,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -16446,7 +16446,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>203</v>
       </c>
@@ -16471,7 +16471,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -16490,7 +16490,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -16509,7 +16509,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -16531,7 +16531,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -16547,7 +16547,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -16563,7 +16563,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -16579,7 +16579,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -16595,7 +16595,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -16611,7 +16611,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -16627,7 +16627,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -16643,7 +16643,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -16659,7 +16659,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -16675,7 +16675,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -16691,7 +16691,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -16708,7 +16708,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -18376,7 +18376,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -18387,7 +18387,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -18396,7 +18396,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -18419,7 +18419,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -18439,7 +18439,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -18447,7 +18447,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -18456,7 +18456,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -18485,8 +18485,8 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
-      <c r="C9" s="86" t="s">
+      <c r="B9" s="82"/>
+      <c r="C9" s="80" t="s">
         <v>204</v>
       </c>
       <c r="D9" s="27" t="s">
@@ -18510,7 +18510,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -18529,7 +18529,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -18548,7 +18548,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -18570,7 +18570,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -18586,7 +18586,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -18602,7 +18602,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -18618,7 +18618,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -18634,7 +18634,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -18650,7 +18650,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -18666,7 +18666,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -18682,7 +18682,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -18698,7 +18698,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -18714,7 +18714,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -18730,7 +18730,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -18747,7 +18747,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -20415,7 +20415,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -20426,7 +20426,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -20435,7 +20435,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -20458,7 +20458,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -20478,7 +20478,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -20486,7 +20486,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -20495,7 +20495,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -20524,7 +20524,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>41</v>
       </c>
@@ -20549,7 +20549,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -20568,7 +20568,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -20587,7 +20587,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -20609,7 +20609,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -20625,7 +20625,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -20641,7 +20641,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -20657,7 +20657,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -20673,7 +20673,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -20689,7 +20689,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -20705,7 +20705,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -20721,7 +20721,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -20737,7 +20737,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -20753,7 +20753,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -20769,7 +20769,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -20786,7 +20786,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -22430,10 +22430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49E94545-21F1-4565-A087-28442FB680FC}">
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22454,7 +22454,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -22467,7 +22467,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -22476,7 +22476,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -22499,7 +22499,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -22521,7 +22521,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -22531,7 +22531,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -22542,7 +22542,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -22571,7 +22571,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>41</v>
       </c>
@@ -22598,7 +22598,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -22617,7 +22617,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>28</v>
       </c>
@@ -22636,7 +22636,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -22663,7 +22663,7 @@
     </row>
     <row r="13" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25"/>
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -22680,7 +22680,7 @@
     </row>
     <row r="14" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25"/>
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -22697,7 +22697,7 @@
     </row>
     <row r="15" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25"/>
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -22714,7 +22714,7 @@
     </row>
     <row r="16" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25"/>
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -22731,7 +22731,7 @@
     </row>
     <row r="17" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25"/>
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -22748,7 +22748,7 @@
     </row>
     <row r="18" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -22765,7 +22765,7 @@
     </row>
     <row r="19" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25"/>
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -22782,7 +22782,7 @@
     </row>
     <row r="20" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25"/>
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -22799,7 +22799,7 @@
     </row>
     <row r="21" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25"/>
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -22816,7 +22816,7 @@
     </row>
     <row r="22" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25"/>
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -22833,7 +22833,7 @@
     </row>
     <row r="23" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25"/>
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -22848,189 +22848,189 @@
       <c r="L23" s="42"/>
       <c r="M23" s="66"/>
     </row>
-    <row r="24" spans="1:13" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25"/>
       <c r="B24" s="83"/>
-      <c r="C24" s="13">
+      <c r="C24" s="12">
         <v>12</v>
       </c>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="32"/>
-      <c r="L24" s="32"/>
-      <c r="M24" s="50"/>
-    </row>
-    <row r="25" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="58"/>
-      <c r="C25" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="54"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+      <c r="K24" s="42"/>
+      <c r="L24" s="42"/>
+      <c r="M24" s="66"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="B25" s="83"/>
+      <c r="C25" s="12">
+        <v>13</v>
+      </c>
+      <c r="D25" s="42"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+      <c r="K25" s="42"/>
+      <c r="L25" s="42"/>
+      <c r="M25" s="66"/>
     </row>
     <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="37" t="s">
+      <c r="B26" s="83"/>
+      <c r="C26" s="12">
+        <v>14</v>
+      </c>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+      <c r="M26" s="66"/>
+    </row>
+    <row r="27" spans="1:13" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="25"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="13">
+        <v>15</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="32"/>
+      <c r="L27" s="32"/>
+      <c r="M27" s="50"/>
+    </row>
+    <row r="28" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="58"/>
+      <c r="C28" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="54"/>
+    </row>
+    <row r="29" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="25"/>
+      <c r="B29" s="57"/>
+      <c r="C29" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="9">
+      <c r="D29" s="9">
         <v>4</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="67"/>
-    </row>
-    <row r="27" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="57"/>
-      <c r="C27" s="37" t="s">
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="67"/>
+    </row>
+    <row r="30" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="25"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="67"/>
-    </row>
-    <row r="28" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="9">
-        <v>5</v>
-      </c>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="67"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="58"/>
-      <c r="C29" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="68" t="s">
-        <v>101</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="55"/>
-    </row>
-    <row r="30" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="70"/>
-      <c r="B30" s="71"/>
-      <c r="C30" s="72" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="73" t="s">
-        <v>52</v>
-      </c>
-      <c r="E30" s="73"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="73"/>
-      <c r="I30" s="73"/>
-      <c r="J30" s="73"/>
-      <c r="K30" s="73"/>
-      <c r="L30" s="73"/>
-      <c r="M30" s="74"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="67"/>
     </row>
     <row r="31" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25"/>
       <c r="B31" s="57"/>
-      <c r="C31" s="12">
-        <v>1</v>
-      </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
-      <c r="M31" s="66"/>
-    </row>
-    <row r="32" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="12">
-        <v>2</v>
-      </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
-      <c r="M32" s="66"/>
-    </row>
-    <row r="33" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="57"/>
-      <c r="C33" s="12">
-        <v>3</v>
-      </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
-      <c r="M33" s="66"/>
+      <c r="C31" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="9">
+        <v>5</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="67"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B32" s="58"/>
+      <c r="C32" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="68" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="55"/>
+    </row>
+    <row r="33" spans="1:13" s="75" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="70"/>
+      <c r="B33" s="71"/>
+      <c r="C33" s="72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" s="73" t="s">
+        <v>52</v>
+      </c>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="74"/>
     </row>
     <row r="34" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25"/>
       <c r="B34" s="57"/>
       <c r="C34" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D34" s="42"/>
       <c r="E34" s="42"/>
@@ -23043,188 +23043,185 @@
       <c r="L34" s="42"/>
       <c r="M34" s="66"/>
     </row>
-    <row r="35" spans="1:13" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25"/>
       <c r="B35" s="57"/>
-      <c r="C35" s="13">
+      <c r="C35" s="12">
+        <v>2</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="42"/>
+      <c r="M35" s="66"/>
+    </row>
+    <row r="36" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="25"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="12">
+        <v>3</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+      <c r="K36" s="42"/>
+      <c r="L36" s="42"/>
+      <c r="M36" s="66"/>
+    </row>
+    <row r="37" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="25"/>
+      <c r="B37" s="57"/>
+      <c r="C37" s="12">
+        <v>4</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="42"/>
+      <c r="M37" s="66"/>
+    </row>
+    <row r="38" spans="1:13" s="2" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="25"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="13">
         <v>5</v>
       </c>
-      <c r="D35" s="32"/>
-      <c r="E35" s="32"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="32"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="50"/>
-    </row>
-    <row r="36" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="58"/>
-      <c r="C36" s="40" t="s">
+      <c r="D38" s="32"/>
+      <c r="E38" s="32"/>
+      <c r="F38" s="32"/>
+      <c r="G38" s="32"/>
+      <c r="H38" s="32"/>
+      <c r="I38" s="32"/>
+      <c r="J38" s="32"/>
+      <c r="K38" s="32"/>
+      <c r="L38" s="32"/>
+      <c r="M38" s="50"/>
+    </row>
+    <row r="39" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="58"/>
+      <c r="C39" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D39" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="45"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B37" s="58"/>
-      <c r="C37" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="9">
-        <v>4</v>
-      </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="10"/>
-      <c r="M37" s="55"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B38" s="58"/>
-      <c r="C38" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D38" s="9"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="55"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B39" s="58"/>
-      <c r="C39" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="9">
-        <v>1</v>
-      </c>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="55"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="45"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B40" s="58"/>
       <c r="C40" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="69" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="56"/>
-    </row>
-    <row r="41" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="25"/>
-      <c r="B41" s="57"/>
-      <c r="C41" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D41" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" s="62"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="65"/>
+        <v>5</v>
+      </c>
+      <c r="D40" s="9">
+        <v>4</v>
+      </c>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="55"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B41" s="58"/>
+      <c r="C41" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="55"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B42" s="58"/>
-      <c r="C42" s="12">
+      <c r="C42" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" s="9">
         <v>1</v>
       </c>
-      <c r="D42" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="35"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="52"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="55"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B43" s="58"/>
-      <c r="C43" s="12">
-        <v>2</v>
-      </c>
-      <c r="D43" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="52"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B44" s="58"/>
-      <c r="C44" s="12">
-        <v>3</v>
-      </c>
-      <c r="D44" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="52"/>
+      <c r="C43" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="41"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
+      <c r="M43" s="56"/>
+    </row>
+    <row r="44" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="25"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="65"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B45" s="58"/>
       <c r="C45" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D45" s="42" t="s">
         <v>7</v>
@@ -23239,102 +23236,104 @@
       <c r="L45" s="35"/>
       <c r="M45" s="52"/>
     </row>
-    <row r="46" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="17"/>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B46" s="58"/>
-      <c r="C46" s="13">
-        <v>5</v>
-      </c>
-      <c r="D46" s="32" t="s">
+      <c r="C46" s="12">
+        <v>2</v>
+      </c>
+      <c r="D46" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="31"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="31"/>
-      <c r="K46" s="31"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="53"/>
-    </row>
-    <row r="47" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="35"/>
+      <c r="H46" s="35"/>
+      <c r="I46" s="35"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="35"/>
+      <c r="L46" s="35"/>
+      <c r="M46" s="52"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B47" s="58"/>
-      <c r="C47" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-      <c r="I47" s="8"/>
-      <c r="J47" s="8"/>
-      <c r="K47" s="8"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="45"/>
+      <c r="C47" s="12">
+        <v>3</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="35"/>
+      <c r="H47" s="35"/>
+      <c r="I47" s="35"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="35"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="52"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B48" s="58"/>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="12">
+        <v>4</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="35"/>
+      <c r="H48" s="35"/>
+      <c r="I48" s="35"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="35"/>
+      <c r="L48" s="35"/>
+      <c r="M48" s="52"/>
+    </row>
+    <row r="49" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="17"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="13">
         <v>5</v>
       </c>
-      <c r="D48" s="9">
-        <v>4</v>
-      </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-      <c r="L48" s="10"/>
-      <c r="M48" s="55"/>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B49" s="58"/>
-      <c r="C49" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D49" s="9"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="55"/>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D49" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="31"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+      <c r="J49" s="31"/>
+      <c r="K49" s="31"/>
+      <c r="L49" s="31"/>
+      <c r="M49" s="53"/>
+    </row>
+    <row r="50" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B50" s="58"/>
-      <c r="C50" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D50" s="9">
-        <v>5</v>
-      </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-      <c r="L50" s="10"/>
-      <c r="M50" s="55"/>
+      <c r="C50" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="45"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B51" s="58"/>
       <c r="C51" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="68" t="s">
-        <v>70</v>
+        <v>5</v>
+      </c>
+      <c r="D51" s="9">
+        <v>4</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -23346,85 +23345,83 @@
       <c r="L51" s="10"/>
       <c r="M51" s="55"/>
     </row>
-    <row r="52" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="25"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" s="62" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="62" t="s">
-        <v>46</v>
-      </c>
-      <c r="F52" s="62"/>
-      <c r="G52" s="62"/>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="65"/>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B52" s="58"/>
+      <c r="C52" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" s="9"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+      <c r="L52" s="10"/>
+      <c r="M52" s="55"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B53" s="58"/>
-      <c r="C53" s="12">
-        <v>1</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E53" s="35"/>
-      <c r="F53" s="35"/>
-      <c r="G53" s="35"/>
-      <c r="H53" s="35"/>
-      <c r="I53" s="35"/>
-      <c r="J53" s="35"/>
-      <c r="K53" s="35"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="52"/>
+      <c r="C53" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="9">
+        <v>5</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+      <c r="L53" s="10"/>
+      <c r="M53" s="55"/>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B54" s="58"/>
-      <c r="C54" s="12">
-        <v>2</v>
-      </c>
-      <c r="D54" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E54" s="35"/>
-      <c r="F54" s="35"/>
-      <c r="G54" s="35"/>
-      <c r="H54" s="35"/>
-      <c r="I54" s="35"/>
-      <c r="J54" s="35"/>
-      <c r="K54" s="35"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="52"/>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B55" s="58"/>
-      <c r="C55" s="12">
-        <v>3</v>
-      </c>
-      <c r="D55" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E55" s="35"/>
-      <c r="F55" s="35"/>
-      <c r="G55" s="35"/>
-      <c r="H55" s="35"/>
-      <c r="I55" s="35"/>
-      <c r="J55" s="35"/>
-      <c r="K55" s="35"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="52"/>
+      <c r="C54" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="55"/>
+    </row>
+    <row r="55" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="25"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" s="62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E55" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="F55" s="62"/>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="65"/>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B56" s="58"/>
       <c r="C56" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D56" s="42" t="s">
         <v>7</v>
@@ -23439,102 +23436,104 @@
       <c r="L56" s="35"/>
       <c r="M56" s="52"/>
     </row>
-    <row r="57" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="17"/>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="58"/>
-      <c r="C57" s="13">
-        <v>5</v>
-      </c>
-      <c r="D57" s="32" t="s">
+      <c r="C57" s="12">
+        <v>2</v>
+      </c>
+      <c r="D57" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E57" s="31"/>
-      <c r="F57" s="31"/>
-      <c r="G57" s="31"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="31"/>
-      <c r="K57" s="31"/>
-      <c r="L57" s="31"/>
-      <c r="M57" s="53"/>
-    </row>
-    <row r="58" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E57" s="35"/>
+      <c r="F57" s="35"/>
+      <c r="G57" s="35"/>
+      <c r="H57" s="35"/>
+      <c r="I57" s="35"/>
+      <c r="J57" s="35"/>
+      <c r="K57" s="35"/>
+      <c r="L57" s="35"/>
+      <c r="M57" s="52"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B58" s="58"/>
-      <c r="C58" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8"/>
-      <c r="J58" s="8"/>
-      <c r="K58" s="8"/>
-      <c r="L58" s="8"/>
-      <c r="M58" s="45"/>
+      <c r="C58" s="12">
+        <v>3</v>
+      </c>
+      <c r="D58" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="35"/>
+      <c r="F58" s="35"/>
+      <c r="G58" s="35"/>
+      <c r="H58" s="35"/>
+      <c r="I58" s="35"/>
+      <c r="J58" s="35"/>
+      <c r="K58" s="35"/>
+      <c r="L58" s="35"/>
+      <c r="M58" s="52"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B59" s="58"/>
-      <c r="C59" s="37" t="s">
+      <c r="C59" s="12">
+        <v>4</v>
+      </c>
+      <c r="D59" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="35"/>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="35"/>
+      <c r="K59" s="35"/>
+      <c r="L59" s="35"/>
+      <c r="M59" s="52"/>
+    </row>
+    <row r="60" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="17"/>
+      <c r="B60" s="58"/>
+      <c r="C60" s="13">
         <v>5</v>
       </c>
-      <c r="D59" s="9">
-        <v>20</v>
-      </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="55"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B60" s="58"/>
-      <c r="C60" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D60" s="9"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="55"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D60" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="31"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
+      <c r="J60" s="31"/>
+      <c r="K60" s="31"/>
+      <c r="L60" s="31"/>
+      <c r="M60" s="53"/>
+    </row>
+    <row r="61" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B61" s="58"/>
-      <c r="C61" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D61" s="9">
-        <v>1</v>
-      </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="55"/>
+      <c r="C61" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="8"/>
+      <c r="K61" s="8"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="45"/>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B62" s="58"/>
       <c r="C62" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="68" t="s">
-        <v>102</v>
+        <v>5</v>
+      </c>
+      <c r="D62" s="9">
+        <v>20</v>
       </c>
       <c r="E62" s="10"/>
       <c r="F62" s="10"/>
@@ -23546,85 +23545,83 @@
       <c r="L62" s="10"/>
       <c r="M62" s="55"/>
     </row>
-    <row r="63" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="25"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="E63" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="F63" s="62"/>
-      <c r="G63" s="62"/>
-      <c r="H63" s="62"/>
-      <c r="I63" s="62"/>
-      <c r="J63" s="62"/>
-      <c r="K63" s="62"/>
-      <c r="L63" s="62"/>
-      <c r="M63" s="65"/>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B63" s="58"/>
+      <c r="C63" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" s="9"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="55"/>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B64" s="58"/>
-      <c r="C64" s="12">
+      <c r="C64" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="9">
         <v>1</v>
       </c>
-      <c r="D64" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="52"/>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="55"/>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B65" s="58"/>
-      <c r="C65" s="12">
-        <v>2</v>
-      </c>
-      <c r="D65" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="52"/>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B66" s="58"/>
-      <c r="C66" s="12">
-        <v>3</v>
-      </c>
-      <c r="D66" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
-      <c r="I66" s="35"/>
-      <c r="J66" s="35"/>
-      <c r="K66" s="35"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="52"/>
+      <c r="C65" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65" s="68" t="s">
+        <v>102</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="55"/>
+    </row>
+    <row r="66" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="25"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F66" s="62"/>
+      <c r="G66" s="62"/>
+      <c r="H66" s="62"/>
+      <c r="I66" s="62"/>
+      <c r="J66" s="62"/>
+      <c r="K66" s="62"/>
+      <c r="L66" s="62"/>
+      <c r="M66" s="65"/>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B67" s="58"/>
       <c r="C67" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D67" s="42" t="s">
         <v>7</v>
@@ -23639,101 +23636,103 @@
       <c r="L67" s="35"/>
       <c r="M67" s="52"/>
     </row>
-    <row r="68" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B68" s="58"/>
-      <c r="C68" s="13">
-        <v>5</v>
-      </c>
-      <c r="D68" s="32" t="s">
+      <c r="C68" s="12">
+        <v>2</v>
+      </c>
+      <c r="D68" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="K68" s="31"/>
-      <c r="L68" s="31"/>
-      <c r="M68" s="53"/>
-    </row>
-    <row r="69" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
+      <c r="I68" s="35"/>
+      <c r="J68" s="35"/>
+      <c r="K68" s="35"/>
+      <c r="L68" s="35"/>
+      <c r="M68" s="52"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B69" s="58"/>
-      <c r="C69" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="8"/>
-      <c r="M69" s="45"/>
+      <c r="C69" s="12">
+        <v>3</v>
+      </c>
+      <c r="D69" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="35"/>
+      <c r="J69" s="35"/>
+      <c r="K69" s="35"/>
+      <c r="L69" s="35"/>
+      <c r="M69" s="52"/>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B70" s="58"/>
-      <c r="C70" s="37" t="s">
+      <c r="C70" s="12">
+        <v>4</v>
+      </c>
+      <c r="D70" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
+      <c r="I70" s="35"/>
+      <c r="J70" s="35"/>
+      <c r="K70" s="35"/>
+      <c r="L70" s="35"/>
+      <c r="M70" s="52"/>
+    </row>
+    <row r="71" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="58"/>
+      <c r="C71" s="13">
         <v>5</v>
       </c>
-      <c r="D70" s="9">
-        <v>20</v>
-      </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="55"/>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B71" s="58"/>
-      <c r="C71" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D71" s="9"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="55"/>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D71" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="31"/>
+      <c r="L71" s="31"/>
+      <c r="M71" s="53"/>
+    </row>
+    <row r="72" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B72" s="58"/>
-      <c r="C72" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D72" s="9">
-        <v>5</v>
-      </c>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="55"/>
+      <c r="C72" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="45"/>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B73" s="58"/>
       <c r="C73" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="68" t="s">
-        <v>103</v>
+        <v>5</v>
+      </c>
+      <c r="D73" s="9">
+        <v>20</v>
       </c>
       <c r="E73" s="10"/>
       <c r="F73" s="10"/>
@@ -23745,85 +23744,83 @@
       <c r="L73" s="10"/>
       <c r="M73" s="55"/>
     </row>
-    <row r="74" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="25"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D74" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="E74" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
-      <c r="J74" s="62"/>
-      <c r="K74" s="62"/>
-      <c r="L74" s="62"/>
-      <c r="M74" s="65"/>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B74" s="58"/>
+      <c r="C74" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" s="9"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="55"/>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B75" s="58"/>
-      <c r="C75" s="12">
-        <v>1</v>
-      </c>
-      <c r="D75" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
-      <c r="I75" s="35"/>
-      <c r="J75" s="35"/>
-      <c r="K75" s="35"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="52"/>
+      <c r="C75" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D75" s="9">
+        <v>5</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="55"/>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B76" s="58"/>
-      <c r="C76" s="12">
-        <v>2</v>
-      </c>
-      <c r="D76" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E76" s="35"/>
-      <c r="F76" s="35"/>
-      <c r="G76" s="35"/>
-      <c r="H76" s="35"/>
-      <c r="I76" s="35"/>
-      <c r="J76" s="35"/>
-      <c r="K76" s="35"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="52"/>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B77" s="58"/>
-      <c r="C77" s="12">
-        <v>3</v>
-      </c>
-      <c r="D77" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E77" s="35"/>
-      <c r="F77" s="35"/>
-      <c r="G77" s="35"/>
-      <c r="H77" s="35"/>
-      <c r="I77" s="35"/>
-      <c r="J77" s="35"/>
-      <c r="K77" s="35"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="52"/>
+      <c r="C76" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="68" t="s">
+        <v>103</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="55"/>
+    </row>
+    <row r="77" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="25"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="F77" s="62"/>
+      <c r="G77" s="62"/>
+      <c r="H77" s="62"/>
+      <c r="I77" s="62"/>
+      <c r="J77" s="62"/>
+      <c r="K77" s="62"/>
+      <c r="L77" s="62"/>
+      <c r="M77" s="65"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B78" s="58"/>
       <c r="C78" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D78" s="42" t="s">
         <v>7</v>
@@ -23838,101 +23835,103 @@
       <c r="L78" s="35"/>
       <c r="M78" s="52"/>
     </row>
-    <row r="79" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B79" s="58"/>
-      <c r="C79" s="13">
-        <v>5</v>
-      </c>
-      <c r="D79" s="32" t="s">
+      <c r="C79" s="12">
+        <v>2</v>
+      </c>
+      <c r="D79" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
-      <c r="K79" s="31"/>
-      <c r="L79" s="31"/>
-      <c r="M79" s="53"/>
-    </row>
-    <row r="80" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
+      <c r="I79" s="35"/>
+      <c r="J79" s="35"/>
+      <c r="K79" s="35"/>
+      <c r="L79" s="35"/>
+      <c r="M79" s="52"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B80" s="58"/>
-      <c r="C80" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D80" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="45"/>
+      <c r="C80" s="12">
+        <v>3</v>
+      </c>
+      <c r="D80" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="52"/>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B81" s="58"/>
-      <c r="C81" s="37" t="s">
+      <c r="C81" s="12">
+        <v>4</v>
+      </c>
+      <c r="D81" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="52"/>
+    </row>
+    <row r="82" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="58"/>
+      <c r="C82" s="13">
         <v>5</v>
       </c>
-      <c r="D81" s="9">
-        <v>20</v>
-      </c>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="55"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B82" s="58"/>
-      <c r="C82" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D82" s="9"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="55"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D82" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="31"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
+      <c r="J82" s="31"/>
+      <c r="K82" s="31"/>
+      <c r="L82" s="31"/>
+      <c r="M82" s="53"/>
+    </row>
+    <row r="83" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B83" s="58"/>
-      <c r="C83" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D83" s="9">
-        <v>5</v>
-      </c>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="55"/>
+      <c r="C83" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="45"/>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B84" s="58"/>
       <c r="C84" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D84" s="68" t="s">
-        <v>53</v>
+        <v>5</v>
+      </c>
+      <c r="D84" s="9">
+        <v>20</v>
       </c>
       <c r="E84" s="10"/>
       <c r="F84" s="10"/>
@@ -23944,83 +23943,81 @@
       <c r="L84" s="10"/>
       <c r="M84" s="55"/>
     </row>
-    <row r="85" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="25"/>
-      <c r="B85" s="57"/>
-      <c r="C85" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="E85" s="62"/>
-      <c r="F85" s="62"/>
-      <c r="G85" s="62"/>
-      <c r="H85" s="62"/>
-      <c r="I85" s="62"/>
-      <c r="J85" s="62"/>
-      <c r="K85" s="62"/>
-      <c r="L85" s="62"/>
-      <c r="M85" s="65"/>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B85" s="58"/>
+      <c r="C85" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="9"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="55"/>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B86" s="58"/>
-      <c r="C86" s="12">
-        <v>1</v>
-      </c>
-      <c r="D86" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
-      <c r="I86" s="35"/>
-      <c r="J86" s="35"/>
-      <c r="K86" s="35"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="52"/>
+      <c r="C86" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D86" s="9">
+        <v>5</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="55"/>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B87" s="58"/>
-      <c r="C87" s="12">
-        <v>2</v>
-      </c>
-      <c r="D87" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
-      <c r="I87" s="35"/>
-      <c r="J87" s="35"/>
-      <c r="K87" s="35"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="52"/>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B88" s="58"/>
-      <c r="C88" s="12">
-        <v>3</v>
-      </c>
-      <c r="D88" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
-      <c r="I88" s="35"/>
-      <c r="J88" s="35"/>
-      <c r="K88" s="35"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="52"/>
+      <c r="C87" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D87" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="55"/>
+    </row>
+    <row r="88" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="25"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E88" s="62"/>
+      <c r="F88" s="62"/>
+      <c r="G88" s="62"/>
+      <c r="H88" s="62"/>
+      <c r="I88" s="62"/>
+      <c r="J88" s="62"/>
+      <c r="K88" s="62"/>
+      <c r="L88" s="62"/>
+      <c r="M88" s="65"/>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B89" s="58"/>
       <c r="C89" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D89" s="42" t="s">
         <v>7</v>
@@ -24035,101 +24032,103 @@
       <c r="L89" s="35"/>
       <c r="M89" s="52"/>
     </row>
-    <row r="90" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B90" s="58"/>
-      <c r="C90" s="13">
-        <v>5</v>
-      </c>
-      <c r="D90" s="32" t="s">
+      <c r="C90" s="12">
+        <v>2</v>
+      </c>
+      <c r="D90" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
-      <c r="K90" s="31"/>
-      <c r="L90" s="31"/>
-      <c r="M90" s="53"/>
-    </row>
-    <row r="91" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" s="35"/>
+      <c r="K90" s="35"/>
+      <c r="L90" s="35"/>
+      <c r="M90" s="52"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B91" s="58"/>
-      <c r="C91" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D91" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="8"/>
-      <c r="M91" s="45"/>
+      <c r="C91" s="12">
+        <v>3</v>
+      </c>
+      <c r="D91" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" s="35"/>
+      <c r="K91" s="35"/>
+      <c r="L91" s="35"/>
+      <c r="M91" s="52"/>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B92" s="58"/>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="12">
+        <v>4</v>
+      </c>
+      <c r="D92" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" s="35"/>
+      <c r="K92" s="35"/>
+      <c r="L92" s="35"/>
+      <c r="M92" s="52"/>
+    </row>
+    <row r="93" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B93" s="58"/>
+      <c r="C93" s="13">
         <v>5</v>
       </c>
-      <c r="D92" s="9">
-        <v>48</v>
-      </c>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="10"/>
-      <c r="K92" s="10"/>
-      <c r="L92" s="10"/>
-      <c r="M92" s="55"/>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B93" s="58"/>
-      <c r="C93" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D93" s="9"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="10"/>
-      <c r="K93" s="10"/>
-      <c r="L93" s="10"/>
-      <c r="M93" s="55"/>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D93" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="31"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="31"/>
+      <c r="K93" s="31"/>
+      <c r="L93" s="31"/>
+      <c r="M93" s="53"/>
+    </row>
+    <row r="94" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B94" s="58"/>
-      <c r="C94" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" s="9">
-        <v>1</v>
-      </c>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="10"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="55"/>
+      <c r="C94" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="45"/>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B95" s="58"/>
       <c r="C95" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="68" t="s">
-        <v>54</v>
+        <v>5</v>
+      </c>
+      <c r="D95" s="9">
+        <v>48</v>
       </c>
       <c r="E95" s="10"/>
       <c r="F95" s="10"/>
@@ -24141,83 +24140,81 @@
       <c r="L95" s="10"/>
       <c r="M95" s="55"/>
     </row>
-    <row r="96" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="25"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D96" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="E96" s="62"/>
-      <c r="F96" s="62"/>
-      <c r="G96" s="62"/>
-      <c r="H96" s="62"/>
-      <c r="I96" s="62"/>
-      <c r="J96" s="62"/>
-      <c r="K96" s="62"/>
-      <c r="L96" s="62"/>
-      <c r="M96" s="65"/>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B96" s="58"/>
+      <c r="C96" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" s="9"/>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="55"/>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B97" s="58"/>
-      <c r="C97" s="12">
+      <c r="C97" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D97" s="9">
         <v>1</v>
       </c>
-      <c r="D97" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E97" s="35"/>
-      <c r="F97" s="35"/>
-      <c r="G97" s="35"/>
-      <c r="H97" s="35"/>
-      <c r="I97" s="35"/>
-      <c r="J97" s="35"/>
-      <c r="K97" s="35"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="52"/>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="55"/>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B98" s="58"/>
-      <c r="C98" s="12">
-        <v>2</v>
-      </c>
-      <c r="D98" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E98" s="35"/>
-      <c r="F98" s="35"/>
-      <c r="G98" s="35"/>
-      <c r="H98" s="35"/>
-      <c r="I98" s="35"/>
-      <c r="J98" s="35"/>
-      <c r="K98" s="35"/>
-      <c r="L98" s="35"/>
-      <c r="M98" s="52"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B99" s="58"/>
-      <c r="C99" s="12">
-        <v>3</v>
-      </c>
-      <c r="D99" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E99" s="35"/>
-      <c r="F99" s="35"/>
-      <c r="G99" s="35"/>
-      <c r="H99" s="35"/>
-      <c r="I99" s="35"/>
-      <c r="J99" s="35"/>
-      <c r="K99" s="35"/>
-      <c r="L99" s="35"/>
-      <c r="M99" s="52"/>
+      <c r="C98" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="55"/>
+    </row>
+    <row r="99" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="25"/>
+      <c r="B99" s="57"/>
+      <c r="C99" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="E99" s="62"/>
+      <c r="F99" s="62"/>
+      <c r="G99" s="62"/>
+      <c r="H99" s="62"/>
+      <c r="I99" s="62"/>
+      <c r="J99" s="62"/>
+      <c r="K99" s="62"/>
+      <c r="L99" s="62"/>
+      <c r="M99" s="65"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B100" s="58"/>
       <c r="C100" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D100" s="42" t="s">
         <v>7</v>
@@ -24232,101 +24229,103 @@
       <c r="L100" s="35"/>
       <c r="M100" s="52"/>
     </row>
-    <row r="101" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B101" s="58"/>
-      <c r="C101" s="13">
-        <v>5</v>
-      </c>
-      <c r="D101" s="32" t="s">
+      <c r="C101" s="12">
+        <v>2</v>
+      </c>
+      <c r="D101" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
-      <c r="K101" s="31"/>
-      <c r="L101" s="31"/>
-      <c r="M101" s="53"/>
-    </row>
-    <row r="102" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E101" s="35"/>
+      <c r="F101" s="35"/>
+      <c r="G101" s="35"/>
+      <c r="H101" s="35"/>
+      <c r="I101" s="35"/>
+      <c r="J101" s="35"/>
+      <c r="K101" s="35"/>
+      <c r="L101" s="35"/>
+      <c r="M101" s="52"/>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B102" s="58"/>
-      <c r="C102" s="40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D102" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="45"/>
+      <c r="C102" s="12">
+        <v>3</v>
+      </c>
+      <c r="D102" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E102" s="35"/>
+      <c r="F102" s="35"/>
+      <c r="G102" s="35"/>
+      <c r="H102" s="35"/>
+      <c r="I102" s="35"/>
+      <c r="J102" s="35"/>
+      <c r="K102" s="35"/>
+      <c r="L102" s="35"/>
+      <c r="M102" s="52"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B103" s="58"/>
-      <c r="C103" s="37" t="s">
+      <c r="C103" s="12">
+        <v>4</v>
+      </c>
+      <c r="D103" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E103" s="35"/>
+      <c r="F103" s="35"/>
+      <c r="G103" s="35"/>
+      <c r="H103" s="35"/>
+      <c r="I103" s="35"/>
+      <c r="J103" s="35"/>
+      <c r="K103" s="35"/>
+      <c r="L103" s="35"/>
+      <c r="M103" s="52"/>
+    </row>
+    <row r="104" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B104" s="58"/>
+      <c r="C104" s="13">
         <v>5</v>
       </c>
-      <c r="D103" s="9">
-        <v>48</v>
-      </c>
-      <c r="E103" s="10"/>
-      <c r="F103" s="10"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="10"/>
-      <c r="K103" s="10"/>
-      <c r="L103" s="10"/>
-      <c r="M103" s="55"/>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B104" s="58"/>
-      <c r="C104" s="37" t="s">
-        <v>1</v>
-      </c>
-      <c r="D104" s="9"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10"/>
-      <c r="G104" s="10"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="10"/>
-      <c r="K104" s="10"/>
-      <c r="L104" s="10"/>
-      <c r="M104" s="55"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="D104" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="31"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
+      <c r="I104" s="31"/>
+      <c r="J104" s="31"/>
+      <c r="K104" s="31"/>
+      <c r="L104" s="31"/>
+      <c r="M104" s="53"/>
+    </row>
+    <row r="105" spans="1:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="B105" s="58"/>
-      <c r="C105" s="38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D105" s="9">
-        <v>5</v>
-      </c>
-      <c r="E105" s="10"/>
-      <c r="F105" s="10"/>
-      <c r="G105" s="10"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="10"/>
-      <c r="K105" s="10"/>
-      <c r="L105" s="10"/>
-      <c r="M105" s="55"/>
+      <c r="C105" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="8"/>
+      <c r="I105" s="8"/>
+      <c r="J105" s="8"/>
+      <c r="K105" s="8"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="45"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B106" s="58"/>
       <c r="C106" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="68" t="s">
-        <v>56</v>
+        <v>5</v>
+      </c>
+      <c r="D106" s="9">
+        <v>48</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10"/>
@@ -24338,85 +24337,83 @@
       <c r="L106" s="10"/>
       <c r="M106" s="55"/>
     </row>
-    <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="25"/>
-      <c r="B107" s="57"/>
-      <c r="C107" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="D107" s="62" t="s">
-        <v>57</v>
-      </c>
-      <c r="E107" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="F107" s="62"/>
-      <c r="G107" s="62"/>
-      <c r="H107" s="62"/>
-      <c r="I107" s="62"/>
-      <c r="J107" s="62"/>
-      <c r="K107" s="62"/>
-      <c r="L107" s="62"/>
-      <c r="M107" s="65"/>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B107" s="58"/>
+      <c r="C107" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" s="9"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="55"/>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B108" s="58"/>
-      <c r="C108" s="12">
-        <v>1</v>
-      </c>
-      <c r="D108" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E108" s="35"/>
-      <c r="F108" s="35"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="35"/>
-      <c r="I108" s="35"/>
-      <c r="J108" s="35"/>
-      <c r="K108" s="35"/>
-      <c r="L108" s="35"/>
-      <c r="M108" s="52"/>
+      <c r="C108" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D108" s="9">
+        <v>5</v>
+      </c>
+      <c r="E108" s="10"/>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="55"/>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B109" s="58"/>
-      <c r="C109" s="12">
-        <v>2</v>
-      </c>
-      <c r="D109" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E109" s="35"/>
-      <c r="F109" s="35"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="35"/>
-      <c r="I109" s="35"/>
-      <c r="J109" s="35"/>
-      <c r="K109" s="35"/>
-      <c r="L109" s="35"/>
-      <c r="M109" s="52"/>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B110" s="58"/>
-      <c r="C110" s="12">
-        <v>3</v>
-      </c>
-      <c r="D110" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="E110" s="35"/>
-      <c r="F110" s="35"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="35"/>
-      <c r="I110" s="35"/>
-      <c r="J110" s="35"/>
-      <c r="K110" s="35"/>
-      <c r="L110" s="35"/>
-      <c r="M110" s="52"/>
+      <c r="C109" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D109" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="55"/>
+    </row>
+    <row r="110" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="25"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D110" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="E110" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="F110" s="62"/>
+      <c r="G110" s="62"/>
+      <c r="H110" s="62"/>
+      <c r="I110" s="62"/>
+      <c r="J110" s="62"/>
+      <c r="K110" s="62"/>
+      <c r="L110" s="62"/>
+      <c r="M110" s="65"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B111" s="58"/>
       <c r="C111" s="12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D111" s="42" t="s">
         <v>7</v>
@@ -24431,33 +24428,88 @@
       <c r="L111" s="35"/>
       <c r="M111" s="52"/>
     </row>
-    <row r="112" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B112" s="58"/>
-      <c r="C112" s="13">
+      <c r="C112" s="12">
+        <v>2</v>
+      </c>
+      <c r="D112" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E112" s="35"/>
+      <c r="F112" s="35"/>
+      <c r="G112" s="35"/>
+      <c r="H112" s="35"/>
+      <c r="I112" s="35"/>
+      <c r="J112" s="35"/>
+      <c r="K112" s="35"/>
+      <c r="L112" s="35"/>
+      <c r="M112" s="52"/>
+    </row>
+    <row r="113" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B113" s="58"/>
+      <c r="C113" s="12">
+        <v>3</v>
+      </c>
+      <c r="D113" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E113" s="35"/>
+      <c r="F113" s="35"/>
+      <c r="G113" s="35"/>
+      <c r="H113" s="35"/>
+      <c r="I113" s="35"/>
+      <c r="J113" s="35"/>
+      <c r="K113" s="35"/>
+      <c r="L113" s="35"/>
+      <c r="M113" s="52"/>
+    </row>
+    <row r="114" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B114" s="58"/>
+      <c r="C114" s="12">
+        <v>4</v>
+      </c>
+      <c r="D114" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="E114" s="35"/>
+      <c r="F114" s="35"/>
+      <c r="G114" s="35"/>
+      <c r="H114" s="35"/>
+      <c r="I114" s="35"/>
+      <c r="J114" s="35"/>
+      <c r="K114" s="35"/>
+      <c r="L114" s="35"/>
+      <c r="M114" s="52"/>
+    </row>
+    <row r="115" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B115" s="58"/>
+      <c r="C115" s="13">
         <v>5</v>
       </c>
-      <c r="D112" s="32" t="s">
+      <c r="D115" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
-      <c r="K112" s="31"/>
-      <c r="L112" s="31"/>
-      <c r="M112" s="53"/>
-    </row>
-    <row r="113" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="31"/>
+      <c r="L115" s="31"/>
+      <c r="M115" s="53"/>
+    </row>
+    <row r="116" spans="2:13" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="B2:B7"/>
-    <mergeCell ref="B12:B24"/>
+    <mergeCell ref="B12:B27"/>
     <mergeCell ref="B8:B11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24465,8 +24517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7D56FE1-A544-4BAE-A0E8-ECCEAF9EBAC8}">
   <dimension ref="A1:Q124"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -24487,7 +24539,7 @@
     </row>
     <row r="2" spans="1:17" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -24500,7 +24552,7 @@
     </row>
     <row r="3" spans="1:17" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -24509,7 +24561,7 @@
     </row>
     <row r="4" spans="1:17" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -24536,7 +24588,7 @@
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>39</v>
       </c>
@@ -24562,7 +24614,7 @@
       <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -24572,7 +24624,7 @@
     </row>
     <row r="7" spans="1:17" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -24583,7 +24635,7 @@
     </row>
     <row r="8" spans="1:17" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -24616,7 +24668,7 @@
     </row>
     <row r="9" spans="1:17" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>41</v>
       </c>
@@ -24647,7 +24699,7 @@
     </row>
     <row r="10" spans="1:17" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -24670,7 +24722,7 @@
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -24693,7 +24745,7 @@
     </row>
     <row r="12" spans="1:17" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -24727,7 +24779,7 @@
       <c r="Q12" s="51"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -24747,7 +24799,7 @@
       <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -24767,7 +24819,7 @@
       <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -24787,7 +24839,7 @@
       <c r="Q15" s="52"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -24807,7 +24859,7 @@
       <c r="Q16" s="52"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -24827,7 +24879,7 @@
       <c r="Q17" s="52"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -24847,7 +24899,7 @@
       <c r="Q18" s="52"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -24867,7 +24919,7 @@
       <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -24887,7 +24939,7 @@
       <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -24907,7 +24959,7 @@
       <c r="Q21" s="52"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -24927,7 +24979,7 @@
       <c r="Q22" s="52"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -24948,7 +25000,7 @@
     </row>
     <row r="24" spans="1:17" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -27085,7 +27137,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -27096,7 +27148,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -27105,7 +27157,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -27128,7 +27180,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -27150,7 +27202,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -27160,7 +27212,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -27171,7 +27223,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -27200,7 +27252,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>41</v>
       </c>
@@ -27227,7 +27279,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -27246,7 +27298,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -27265,7 +27317,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -27287,7 +27339,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -27303,7 +27355,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -27319,7 +27371,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -27335,7 +27387,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -27351,7 +27403,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -27367,7 +27419,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -27383,7 +27435,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -27399,7 +27451,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -27415,7 +27467,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -27431,7 +27483,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -27447,7 +27499,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -27464,7 +27516,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -29202,7 +29254,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -29215,7 +29267,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -29224,7 +29276,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -29247,7 +29299,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>95</v>
       </c>
@@ -29269,7 +29321,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -29279,7 +29331,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -29290,7 +29342,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -29319,7 +29371,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>41</v>
       </c>
@@ -29346,7 +29398,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -29367,7 +29419,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -29388,7 +29440,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -29418,7 +29470,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -29434,7 +29486,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -29450,7 +29502,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -29466,7 +29518,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -29482,7 +29534,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -29498,7 +29550,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -29514,7 +29566,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -29530,7 +29582,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -29546,7 +29598,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -29562,7 +29614,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -29578,7 +29630,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -29595,7 +29647,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -31345,7 +31397,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -31358,7 +31410,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -31367,7 +31419,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -31390,7 +31442,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -31412,7 +31464,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -31422,7 +31474,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -31431,7 +31483,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -31460,7 +31512,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>41</v>
       </c>
@@ -31487,7 +31539,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -31506,7 +31558,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -31525,7 +31577,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -31553,7 +31605,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -31569,7 +31621,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -31585,7 +31637,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -31601,7 +31653,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -31617,7 +31669,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -31633,7 +31685,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -31649,7 +31701,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -31665,7 +31717,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -31681,7 +31733,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -31697,7 +31749,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -31713,7 +31765,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -31730,7 +31782,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -33447,7 +33499,7 @@
   <dimension ref="A1:M124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:H9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -33468,7 +33520,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -33481,7 +33533,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -33490,7 +33542,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -33513,7 +33565,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>39</v>
       </c>
@@ -33535,7 +33587,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -33545,7 +33597,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -33554,7 +33606,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -33583,7 +33635,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>41</v>
       </c>
@@ -33610,7 +33662,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -33631,7 +33683,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -33652,7 +33704,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -33678,7 +33730,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -33694,7 +33746,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -33710,7 +33762,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -33726,7 +33778,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -33742,7 +33794,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -33758,7 +33810,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -33774,7 +33826,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -33790,7 +33842,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -33806,7 +33858,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -33822,7 +33874,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -33838,7 +33890,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -33855,7 +33907,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -35259,17 +35311,17 @@
       <c r="C106" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D106" s="85" t="s">
+      <c r="D106" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="E106" s="85"/>
-      <c r="F106" s="85"/>
-      <c r="G106" s="85"/>
-      <c r="H106" s="85"/>
-      <c r="I106" s="85"/>
-      <c r="J106" s="85"/>
-      <c r="K106" s="85"/>
-      <c r="L106" s="85"/>
+      <c r="E106" s="86"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
+      <c r="H106" s="86"/>
+      <c r="I106" s="86"/>
+      <c r="J106" s="86"/>
+      <c r="K106" s="86"/>
+      <c r="L106" s="86"/>
       <c r="M106" s="55"/>
     </row>
     <row r="107" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -35598,7 +35650,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -35611,7 +35663,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -35620,7 +35672,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -35643,7 +35695,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>3</v>
       </c>
@@ -35665,7 +35717,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -35675,7 +35727,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -35684,7 +35736,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -35713,7 +35765,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>41</v>
       </c>
@@ -35740,7 +35792,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -35761,7 +35813,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -35782,7 +35834,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -35808,7 +35860,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -35824,7 +35876,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -35840,7 +35892,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -35856,7 +35908,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -35872,7 +35924,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -35888,7 +35940,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -35904,7 +35956,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -35920,7 +35972,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -35936,7 +35988,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -35952,7 +36004,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -35968,7 +36020,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -35985,7 +36037,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
@@ -37725,7 +37777,7 @@
     </row>
     <row r="2" spans="1:13" s="23" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="17"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="81" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="22" t="s">
@@ -37738,7 +37790,7 @@
     </row>
     <row r="3" spans="1:13" s="8" customFormat="1" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
-      <c r="B3" s="81"/>
+      <c r="B3" s="82"/>
       <c r="C3" s="19" t="s">
         <v>2</v>
       </c>
@@ -37747,7 +37799,7 @@
     </row>
     <row r="4" spans="1:13" s="1" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25"/>
-      <c r="B4" s="81"/>
+      <c r="B4" s="82"/>
       <c r="C4" s="24" t="s">
         <v>22</v>
       </c>
@@ -37770,7 +37822,7 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="25"/>
-      <c r="B5" s="81"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="13" t="s">
         <v>39</v>
       </c>
@@ -37792,7 +37844,7 @@
       <c r="M5" s="50"/>
     </row>
     <row r="6" spans="1:13" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="81"/>
+      <c r="B6" s="82"/>
       <c r="C6" s="20" t="s">
         <v>10</v>
       </c>
@@ -37802,7 +37854,7 @@
     </row>
     <row r="7" spans="1:13" s="3" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="17"/>
-      <c r="B7" s="81"/>
+      <c r="B7" s="82"/>
       <c r="C7" s="21" t="s">
         <v>11</v>
       </c>
@@ -37811,7 +37863,7 @@
     </row>
     <row r="8" spans="1:13" s="28" customFormat="1" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25"/>
-      <c r="B8" s="80" t="s">
+      <c r="B8" s="81" t="s">
         <v>42</v>
       </c>
       <c r="C8" s="29" t="s">
@@ -37840,7 +37892,7 @@
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25"/>
-      <c r="B9" s="81"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="14" t="s">
         <v>195</v>
       </c>
@@ -37867,7 +37919,7 @@
     </row>
     <row r="10" spans="1:13" s="18" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25"/>
-      <c r="B10" s="81"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="24" t="s">
         <v>19</v>
       </c>
@@ -37886,7 +37938,7 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="25"/>
-      <c r="B11" s="84"/>
+      <c r="B11" s="85"/>
       <c r="C11" s="13" t="s">
         <v>7</v>
       </c>
@@ -37905,7 +37957,7 @@
     </row>
     <row r="12" spans="1:13" s="28" customFormat="1" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25"/>
-      <c r="B12" s="82" t="s">
+      <c r="B12" s="83" t="s">
         <v>18</v>
       </c>
       <c r="C12" s="33" t="s">
@@ -37927,7 +37979,7 @@
       <c r="M12" s="51"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="82"/>
+      <c r="B13" s="83"/>
       <c r="C13" s="12">
         <v>1</v>
       </c>
@@ -37943,7 +37995,7 @@
       <c r="M13" s="52"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="82"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="12">
         <v>2</v>
       </c>
@@ -37959,7 +38011,7 @@
       <c r="M14" s="52"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="82"/>
+      <c r="B15" s="83"/>
       <c r="C15" s="12">
         <v>3</v>
       </c>
@@ -37975,7 +38027,7 @@
       <c r="M15" s="52"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="82"/>
+      <c r="B16" s="83"/>
       <c r="C16" s="12">
         <v>4</v>
       </c>
@@ -37991,7 +38043,7 @@
       <c r="M16" s="52"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B17" s="82"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="12">
         <v>5</v>
       </c>
@@ -38007,7 +38059,7 @@
       <c r="M17" s="52"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B18" s="82"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="12">
         <v>6</v>
       </c>
@@ -38023,7 +38075,7 @@
       <c r="M18" s="52"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B19" s="82"/>
+      <c r="B19" s="83"/>
       <c r="C19" s="12">
         <v>7</v>
       </c>
@@ -38039,7 +38091,7 @@
       <c r="M19" s="52"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B20" s="82"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="12">
         <v>8</v>
       </c>
@@ -38055,7 +38107,7 @@
       <c r="M20" s="52"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="82"/>
+      <c r="B21" s="83"/>
       <c r="C21" s="12">
         <v>9</v>
       </c>
@@ -38071,7 +38123,7 @@
       <c r="M21" s="52"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="82"/>
+      <c r="B22" s="83"/>
       <c r="C22" s="12">
         <v>10</v>
       </c>
@@ -38087,7 +38139,7 @@
       <c r="M22" s="52"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="82"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="12">
         <v>11</v>
       </c>
@@ -38104,7 +38156,7 @@
     </row>
     <row r="24" spans="1:13" s="3" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="17"/>
-      <c r="B24" s="83"/>
+      <c r="B24" s="84"/>
       <c r="C24" s="13">
         <v>12</v>
       </c>
